--- a/results/Auto/genero-m1_me_parece_muy_adjetivootros-m2.xlsx
+++ b/results/Auto/genero-m1_me_parece_muy_adjetivootros-m2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03796134889125824</v>
+        <v>2.545981425683408e-09</v>
       </c>
       <c r="E2" t="n">
         <v>0.0004404202336445451</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0187684353441</v>
+        <v>1.297723795090633e-08</v>
       </c>
       <c r="E3" t="n">
         <v>0.0005374932661652565</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08388662338256836</v>
+        <v>4.390370733631244e-09</v>
       </c>
       <c r="E4" t="n">
         <v>0.0015508794458583</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02698331698775291</v>
+        <v>6.849877554060413e-09</v>
       </c>
       <c r="E5" t="n">
         <v>0.0005986436153762043</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01639124006032944</v>
+        <v>5.312343898111749e-09</v>
       </c>
       <c r="E6" t="n">
         <v>0.0004964745603501797</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02704630605876446</v>
+        <v>9.354303998065916e-09</v>
       </c>
       <c r="E7" t="n">
         <v>0.000758193142246455</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0183832012116909</v>
+        <v>3.364436729214049e-09</v>
       </c>
       <c r="E8" t="n">
         <v>0.0005346214165911078</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004874838516116142</v>
+        <v>7.674730539974917e-08</v>
       </c>
       <c r="E9" t="n">
         <v>0.0001719148276606575</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1133620887994766</v>
+        <v>2.118288211505615e-09</v>
       </c>
       <c r="E10" t="n">
         <v>0.0002296179736731574</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003859646618366241</v>
+        <v>9.850082971496477e-10</v>
       </c>
       <c r="E11" t="n">
         <v>0.002090741647407413</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003654580097645521</v>
+        <v>2.228627771216907e-08</v>
       </c>
       <c r="E12" t="n">
         <v>0.0002848779258783907</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02839390374720097</v>
+        <v>4.658523788947377e-09</v>
       </c>
       <c r="E13" t="n">
         <v>0.000490752630867064</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01088937558233738</v>
+        <v>6.84573908671382e-09</v>
       </c>
       <c r="E14" t="n">
         <v>0.0003822265425696969</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05285362154245377</v>
+        <v>1.52617118942544e-08</v>
       </c>
       <c r="E15" t="n">
         <v>0.002912975382059813</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01751840487122536</v>
+        <v>1.991494436026642e-08</v>
       </c>
       <c r="E16" t="n">
         <v>0.000542161229532212</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01175406016409397</v>
+        <v>1.177228714510647e-08</v>
       </c>
       <c r="E17" t="n">
         <v>0.0006172851426526904</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.006709756795316935</v>
+        <v>6.462482105007439e-09</v>
       </c>
       <c r="E18" t="n">
         <v>7.834128336980939e-05</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03073864988982677</v>
+        <v>3.500090173247372e-08</v>
       </c>
       <c r="E19" t="n">
         <v>0.0006190689164213836</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0173962414264679</v>
+        <v>9.798846178910026e-09</v>
       </c>
       <c r="E20" t="n">
         <v>0.001004849909804761</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00963152851909399</v>
+        <v>8.359276826297446e-09</v>
       </c>
       <c r="E21" t="n">
         <v>0.0001384327915729955</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.004062048625200987</v>
+        <v>2.186781244972735e-08</v>
       </c>
       <c r="E22" t="n">
         <v>0.0005706604570150375</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01412853412330151</v>
+        <v>5.319691798177928e-09</v>
       </c>
       <c r="E23" t="n">
         <v>0.0003482863830868155</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001898983377031982</v>
+        <v>1.182033226854173e-08</v>
       </c>
       <c r="E24" t="n">
         <v>0.001771885901689529</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1385,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.005747891031205654</v>
+        <v>2.609813343212863e-08</v>
       </c>
       <c r="E25" t="n">
         <v>0.0004101637459825724</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01661616377532482</v>
+        <v>1.231272683810403e-08</v>
       </c>
       <c r="E26" t="n">
         <v>0.0007943602977320552</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03281915187835693</v>
+        <v>1.195168852774486e-08</v>
       </c>
       <c r="E27" t="n">
         <v>0.0011422069510445</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>0.008204474113881588</v>
+        <v>1.82173796048346e-08</v>
       </c>
       <c r="E28" t="n">
         <v>1.033723833643307e-06</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1541,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>0.006523577962070704</v>
+        <v>7.274248314814713e-09</v>
       </c>
       <c r="E29" t="n">
         <v>0.0002513668732717633</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01644903980195522</v>
+        <v>2.189439074484767e-09</v>
       </c>
       <c r="E30" t="n">
         <v>0.00224018027074635</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1619,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.006302131339907646</v>
+        <v>1.496101376119441e-08</v>
       </c>
       <c r="E31" t="n">
         <v>0.0002835996856447309</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01106844004243612</v>
+        <v>2.011662481038456e-08</v>
       </c>
       <c r="E32" t="n">
         <v>0.0002375586482230574</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001165197463706136</v>
+        <v>1.239624625171132e-09</v>
       </c>
       <c r="E33" t="n">
         <v>0.001906854566186666</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002670143963769078</v>
+        <v>2.522890696354807e-08</v>
       </c>
       <c r="E34" t="n">
         <v>0.000221108304685913</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09933213889598846</v>
+        <v>9.080582952236682e-10</v>
       </c>
       <c r="E35" t="n">
         <v>0.001144581357948482</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02209260500967503</v>
+        <v>1.264600513195546e-08</v>
       </c>
       <c r="E36" t="n">
         <v>0.001975958468392491</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02887323126196861</v>
+        <v>3.931479852781194e-08</v>
       </c>
       <c r="E37" t="n">
         <v>0.001509442459791899</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02059500105679035</v>
+        <v>1.111221692440267e-08</v>
       </c>
       <c r="E38" t="n">
         <v>0.002007573377341032</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.007255439646542072</v>
+        <v>4.440082435053228e-08</v>
       </c>
       <c r="E39" t="n">
         <v>0.0002043709100689739</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.005646122619509697</v>
+        <v>3.628279676703983e-09</v>
       </c>
       <c r="E40" t="n">
         <v>2.712885179789737e-05</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2009,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0004554600745905191</v>
+        <v>2.981011548719437e-10</v>
       </c>
       <c r="E41" t="n">
         <v>1.293011337111238e-06</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>0.004284791648387909</v>
+        <v>9.499083297725974e-09</v>
       </c>
       <c r="E42" t="n">
         <v>0.001322208670899272</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2087,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02977587468922138</v>
+        <v>3.691462424626479e-08</v>
       </c>
       <c r="E43" t="n">
         <v>0.0003529931127559394</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2126,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>0.002332286443561316</v>
+        <v>5.233302124985073e-10</v>
       </c>
       <c r="E44" t="n">
         <v>0.0004763944598380476</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2165,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01833147369325161</v>
+        <v>3.868128040096508e-09</v>
       </c>
       <c r="E45" t="n">
         <v>0.0005150190554559231</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2204,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.008914056234061718</v>
+        <v>8.548409979880489e-09</v>
       </c>
       <c r="E46" t="n">
         <v>6.296176434261724e-05</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001333651249296963</v>
+        <v>3.20561799327379e-09</v>
       </c>
       <c r="E47" t="n">
         <v>2.408046930213459e-05</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2282,7 +2282,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0.00888252817094326</v>
+        <v>6.888445924779774e-10</v>
       </c>
       <c r="E48" t="n">
         <v>0.0008058849489316344</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2321,7 +2321,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.005261457990854979</v>
+        <v>8.448962418583505e-09</v>
       </c>
       <c r="E49" t="n">
         <v>0.0006921626045368612</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2360,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>0.04433441534638405</v>
+        <v>6.772827632062217e-09</v>
       </c>
       <c r="E50" t="n">
         <v>0.0001480257633375004</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01457814686000347</v>
+        <v>7.438462734654649e-09</v>
       </c>
       <c r="E51" t="n">
         <v>0.0001661341229919344</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2438,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.005516888573765755</v>
+        <v>1.892785128632113e-08</v>
       </c>
       <c r="E52" t="n">
         <v>4.071332296007313e-05</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2477,7 +2477,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>0.005144469905644655</v>
+        <v>4.992282587323871e-09</v>
       </c>
       <c r="E53" t="n">
         <v>0.000280104810371995</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2516,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01027252618223429</v>
+        <v>1.104912428218086e-08</v>
       </c>
       <c r="E54" t="n">
         <v>0.0005793239106424153</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2555,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>0.003362455870956182</v>
+        <v>1.305555930031232e-08</v>
       </c>
       <c r="E55" t="n">
         <v>1.364024501526728e-05</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>0.004516920540481806</v>
+        <v>1.701092422479178e-08</v>
       </c>
       <c r="E56" t="n">
         <v>6.230702274478972e-05</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>0.006187315564602613</v>
+        <v>3.0530898698089e-08</v>
       </c>
       <c r="E57" t="n">
         <v>9.201189823215827e-05</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2672,7 +2672,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="n">
-        <v>0.002697913441807032</v>
+        <v>4.647342422003931e-08</v>
       </c>
       <c r="E58" t="n">
         <v>0.002372329588979483</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02242673747241497</v>
+        <v>3.936950676575179e-08</v>
       </c>
       <c r="E59" t="n">
         <v>0.0005662561161443591</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2750,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="n">
-        <v>0.006993073038756847</v>
+        <v>5.065989583385999e-08</v>
       </c>
       <c r="E60" t="n">
         <v>0.001275082933716476</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2789,7 +2789,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01755013316869736</v>
+        <v>3.691038585884598e-08</v>
       </c>
       <c r="E61" t="n">
         <v>0.001424031681381166</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2828,7 +2828,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.004770221188664436</v>
+        <v>2.614183003402104e-08</v>
       </c>
       <c r="E62" t="n">
         <v>0.000259258842561394</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2867,7 +2867,7 @@
         <v>62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01349772699177265</v>
+        <v>1.39522837727668e-08</v>
       </c>
       <c r="E63" t="n">
         <v>0.001498788245953619</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2906,7 +2906,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01843319833278656</v>
+        <v>7.231417242792304e-09</v>
       </c>
       <c r="E64" t="n">
         <v>0.0003471431555226445</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2945,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0410417728126049</v>
+        <v>9.729753891463133e-09</v>
       </c>
       <c r="E65" t="n">
         <v>0.0006827653269283473</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.008754021488130093</v>
+        <v>2.270451204822166e-08</v>
       </c>
       <c r="E66" t="n">
         <v>0.0001866254460765049</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0120488153770566</v>
+        <v>1.797124582481047e-08</v>
       </c>
       <c r="E67" t="n">
         <v>6.655345350736752e-05</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3062,7 +3062,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="n">
-        <v>0.03218668326735497</v>
+        <v>2.202856741462256e-08</v>
       </c>
       <c r="E68" t="n">
         <v>0.0001763329055393115</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3101,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="n">
-        <v>0.009472678415477276</v>
+        <v>2.537954202352921e-08</v>
       </c>
       <c r="E69" t="n">
         <v>2.690906694624573e-05</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3140,7 +3140,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>0.02649665996432304</v>
+        <v>1.911734059945047e-08</v>
       </c>
       <c r="E70" t="n">
         <v>0.0001917558984132484</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3179,7 +3179,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="n">
-        <v>0.003646835684776306</v>
+        <v>9.783006627017699e-10</v>
       </c>
       <c r="E71" t="n">
         <v>8.793104643700644e-05</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3218,7 +3218,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00579154584556818</v>
+        <v>1.092238743893859e-08</v>
       </c>
       <c r="E72" t="n">
         <v>0.003871148219332099</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02917472831904888</v>
+        <v>1.964313867119927e-08</v>
       </c>
       <c r="E73" t="n">
         <v>0.00022308730694931</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3296,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01229605078697205</v>
+        <v>6.335354019171291e-09</v>
       </c>
       <c r="E74" t="n">
         <v>0.0003110971301794052</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3335,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0008732415735721588</v>
+        <v>1.860444298618091e-10</v>
       </c>
       <c r="E75" t="n">
         <v>3.486447167233564e-05</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.004101448226720095</v>
+        <v>4.567161648871831e-10</v>
       </c>
       <c r="E76" t="n">
         <v>8.300645276904106e-05</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3413,7 +3413,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.00603566924110055</v>
+        <v>1.113772896133014e-08</v>
       </c>
       <c r="E77" t="n">
         <v>0.0007166977738961577</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001898983377031982</v>
+        <v>1.182033226854173e-08</v>
       </c>
       <c r="E78" t="n">
         <v>0.001771885901689529</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3491,7 +3491,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.004295053891837597</v>
+        <v>9.053098892763956e-08</v>
       </c>
       <c r="E79" t="n">
         <v>0.001636541332118213</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3530,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="n">
-        <v>0.003556701820343733</v>
+        <v>1.40849323315706e-08</v>
       </c>
       <c r="E80" t="n">
         <v>0.0005632233223877847</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3569,7 +3569,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>0.002723002340644598</v>
+        <v>6.738516855619991e-09</v>
       </c>
       <c r="E81" t="n">
         <v>0.0007977345958352089</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3608,7 +3608,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>0.04890914261341095</v>
+        <v>5.146057802107862e-08</v>
       </c>
       <c r="E82" t="n">
         <v>0.003643410513177514</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3647,7 +3647,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.02415562234818935</v>
+        <v>2.288440370534772e-08</v>
       </c>
       <c r="E83" t="n">
         <v>0.01004052069038153</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3686,7 +3686,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03281915187835693</v>
+        <v>1.195168852774486e-08</v>
       </c>
       <c r="E84" t="n">
         <v>0.0011422069510445</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3725,7 +3725,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="n">
-        <v>0.006680980324745178</v>
+        <v>4.377539664091046e-09</v>
       </c>
       <c r="E85" t="n">
         <v>5.307545143296011e-05</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01590342819690704</v>
+        <v>1.767516621953291e-08</v>
       </c>
       <c r="E86" t="n">
         <v>0.000147888800711371</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3803,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.005748162046074867</v>
+        <v>4.31544799894823e-09</v>
       </c>
       <c r="E87" t="n">
         <v>0.0001350749953417107</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3842,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01329955644905567</v>
+        <v>4.571386380547438e-09</v>
       </c>
       <c r="E88" t="n">
         <v>0.0002453537017572671</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3881,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>0.03341497480869293</v>
+        <v>2.655246866822836e-08</v>
       </c>
       <c r="E89" t="n">
         <v>0.0007713665836490691</v>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3920,7 +3920,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="n">
-        <v>0.00512919994071126</v>
+        <v>1.060586463097479e-08</v>
       </c>
       <c r="E90" t="n">
         <v>0.0002461866533849388</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>0.007775543723255396</v>
+        <v>1.659054404967719e-08</v>
       </c>
       <c r="E91" t="n">
         <v>0.0001767082867445424</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="n">
-        <v>0.002962986938655376</v>
+        <v>6.743748226512025e-09</v>
       </c>
       <c r="E92" t="n">
         <v>2.374708856223151e-05</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4037,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01200558431446552</v>
+        <v>1.680277073035086e-08</v>
       </c>
       <c r="E93" t="n">
         <v>0.0007658867398276925</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4076,7 +4076,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="n">
-        <v>0.006548044737428427</v>
+        <v>3.112400293048267e-08</v>
       </c>
       <c r="E94" t="n">
         <v>0.002021308988332748</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01247195806354284</v>
+        <v>3.576091245349744e-08</v>
       </c>
       <c r="E95" t="n">
         <v>0.001298242597840726</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4154,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>0.003501252504065633</v>
+        <v>1.023691531543136e-08</v>
       </c>
       <c r="E96" t="n">
         <v>0.0003314342175144702</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4193,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>0.004257756751030684</v>
+        <v>1.271782901213214e-09</v>
       </c>
       <c r="E97" t="n">
         <v>0.001072701648809016</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4232,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01279532164335251</v>
+        <v>2.109748287182356e-08</v>
       </c>
       <c r="E98" t="n">
         <v>0.001162800705060363</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4271,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>0.00411632563918829</v>
+        <v>2.325157177907045e-09</v>
       </c>
       <c r="E99" t="n">
         <v>0.0004672122304327786</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4310,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0156062301248312</v>
+        <v>7.427669146409244e-08</v>
       </c>
       <c r="E100" t="n">
         <v>0.0001191528790513985</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01892549358308315</v>
+        <v>4.277823961729155e-08</v>
       </c>
       <c r="E101" t="n">
         <v>0.0007035390590317547</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
